--- a/outputs-HGR-r202/f__Erysipelatoclostridiaceae.xlsx
+++ b/outputs-HGR-r202/f__Erysipelatoclostridiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>g__Erysipelatoclostridium</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>g__Erysipelatoclostridium</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +622,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +666,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +710,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -724,6 +754,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +798,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -802,6 +842,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -841,6 +886,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -876,6 +926,11 @@
         <v>0.9949381397634973</v>
       </c>
       <c r="K11" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>g__Faecalibacillus</t>
         </is>

--- a/outputs-HGR-r202/f__Erysipelatoclostridiaceae.xlsx
+++ b/outputs-HGR-r202/f__Erysipelatoclostridiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>g__Erysipelatoclostridium</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>g__Erysipelatoclostridium</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>g__Erysipelatoclostridium</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>g__Erysipelatoclostridium</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +622,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +666,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +710,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -724,6 +754,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +798,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -802,6 +842,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -841,6 +886,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -880,6 +930,11 @@
           <t>g__Faecalibacillus</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -915,6 +970,11 @@
         <v>0.9949381397634973</v>
       </c>
       <c r="K12" t="inlineStr">
+        <is>
+          <t>g__Faecalibacillus</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>g__Faecalibacillus</t>
         </is>

--- a/outputs-HGR-r202/f__Erysipelatoclostridiaceae.xlsx
+++ b/outputs-HGR-r202/f__Erysipelatoclostridiaceae.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>g__Faecalibacillus</t>
+          <t>g__Faecalibacillus(reject)</t>
         </is>
       </c>
     </row>
